--- a/Perk_data/data/event/event_utility_perks.xlsx
+++ b/Perk_data/data/event/event_utility_perks.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre-Luc\Documents\GitHub\BattleBay_tool\Perk_data\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre-Luc\Documents\GitHub\BattleBay_tool\Perk_data\data\event\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF5969FF-9CAD-462E-95B0-469BC293EFBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C940B3-7AEA-484E-9461-E3577F8FCB7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9CDDEF43-CE84-4AD4-8214-7C6696156998}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{9CDDEF43-CE84-4AD4-8214-7C6696156998}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -850,7 +850,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Perk_data/data/event/event_utility_perks.xlsx
+++ b/Perk_data/data/event/event_utility_perks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre-Luc\Documents\GitHub\BattleBay_tool\Perk_data\data\event\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C940B3-7AEA-484E-9461-E3577F8FCB7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA966B0-1480-47CA-A3AA-3573E5C872B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{9CDDEF43-CE84-4AD4-8214-7C6696156998}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9CDDEF43-CE84-4AD4-8214-7C6696156998}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -357,197 +357,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>120016</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB6628B8-104D-469B-B083-89325A65F9A7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8667750" y="95250"/>
-          <a:ext cx="7248525" cy="4025266"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="2400" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>READ FIRST</a:t>
-          </a:r>
-          <a:endParaRPr lang="fr-FR" sz="2400">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="fr-FR" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100"/>
-            <a:t>The goal of this drive and excel is to have an up to date list of all the perks in all possible rarities. </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="fr-FR" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100"/>
-            <a:t>Here the legendaries have the right values and thus are colored in light green.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="fr-FR" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100"/>
-            <a:t>The goal is for you to go around your stuff and check if your perks are already updated. </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100"/>
-            <a:t>If they are not updated here, they will not be colored (in the excel) and then you have the oportunity to either dm me on discord with a screeshot of the perk's infos so I change it my self (@komiko44240 on the official battle bay discord sever), or change it yourself (if I can figure out a way to let google drive alow you to do that)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100"/>
-            <a:t>And please if you change any value that was not modified already, color it with the right (or as close as possible) color (R: 226 G:239 B:218 or hex</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>: #e2efda</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100"/>
-            <a:t>). </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="fr-FR" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100"/>
-            <a:t>If  the perk that you have is not part of this list, please dm me directly on discord (@komiko44240 on the official battle bay discord sever) without modifying</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
-            <a:t> any thing here.</a:t>
-          </a:r>
-          <a:endParaRPr lang="fr-FR" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="fr-FR" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="fr-FR" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100"/>
-            <a:t>Note : If</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
-            <a:t> any modification apported to this spread sheet is childish you will be banned from accesing this divre</a:t>
-          </a:r>
-          <a:endParaRPr lang="fr-FR" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1154,6 +963,5 @@
   </sheetData>
   <autoFilter ref="A1:E17" xr:uid="{89470DC3-91A8-4599-AABB-A1933C2CE52D}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>